--- a/data/144/RKB/old/RKB.xlsx
+++ b/data/144/RKB/old/RKB.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Interest rates and exchange rates</t>
   </si>
   <si>
-    <t>ADVANCED RESULT 03/01/2011 - 07/10/2021</t>
+    <t>ADVANCED RESULT 03/01/2011 - 28/12/2021</t>
   </si>
   <si>
     <t>Swedish Government Bonds</t>
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t>2021 September</t>
+  </si>
+  <si>
+    <t>2021 October</t>
+  </si>
+  <si>
+    <t>2021 November</t>
   </si>
   <si>
     <t/>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2376,75 +2382,103 @@
       <c r="A135" s="0" t="s">
         <v>138</v>
       </c>
+      <c r="B135" s="4">
+        <v>0.3806</v>
+      </c>
+      <c r="C135" s="4">
+        <v>0.2352</v>
+      </c>
+      <c r="D135" s="4">
+        <v>0.5873</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="0" t="s">
         <v>139</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0.2667</v>
+      </c>
+      <c r="C136" s="4">
+        <v>0.3395</v>
+      </c>
+      <c r="D136" s="4">
+        <v>0.6684</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
-        <v>143</v>
+      <c r="A142" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="0" t="s">
-        <v>142</v>
+      <c r="A144" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
-        <v>145</v>
+      <c r="A146" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="0" t="s">
-        <v>142</v>
+      <c r="A148" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
